--- a/txls/tpl.xlsx
+++ b/txls/tpl.xlsx
@@ -19,49 +19,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>券码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456789012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构名称</t>
+    <t>${codes}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出数量：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${orgName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${num}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${prodName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${baId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售商户：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,24 +85,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,25 +134,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,108 +465,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="50.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="34.625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
